--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Asm</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Brake Lines</t>
+  </si>
+  <si>
+    <t>Brake Master Cylinder</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +625,9 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Asm</t>
   </si>
@@ -59,9 +59,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>Engine &amp; Powertrain</t>
-  </si>
-  <si>
     <t>EN_A0100</t>
   </si>
   <si>
@@ -92,15 +89,6 @@
     <t>EN_A0900</t>
   </si>
   <si>
-    <t>EN_A1000</t>
-  </si>
-  <si>
-    <t>EN_A1100</t>
-  </si>
-  <si>
-    <t>EN_A1200</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -110,19 +98,328 @@
     <t>Breaking system</t>
   </si>
   <si>
-    <t>Balance Bar</t>
-  </si>
-  <si>
-    <t>Brake Discs</t>
-  </si>
-  <si>
-    <t>Brake Fluid</t>
-  </si>
-  <si>
-    <t>Brake Lines</t>
-  </si>
-  <si>
     <t>Brake Master Cylinder</t>
+  </si>
+  <si>
+    <t>ST_A0100</t>
+  </si>
+  <si>
+    <t>ST_A0200</t>
+  </si>
+  <si>
+    <t>ST_A0300</t>
+  </si>
+  <si>
+    <t>ST_A0400</t>
+  </si>
+  <si>
+    <t>ST_A0500</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>Suspension system</t>
+  </si>
+  <si>
+    <t>SU_A0100</t>
+  </si>
+  <si>
+    <t>SU_A0200</t>
+  </si>
+  <si>
+    <t>SU_A0300</t>
+  </si>
+  <si>
+    <t>SU_A0400</t>
+  </si>
+  <si>
+    <t>SU_A0500</t>
+  </si>
+  <si>
+    <t>SU_A0600</t>
+  </si>
+  <si>
+    <t>SU_A0700</t>
+  </si>
+  <si>
+    <t>SU_A0800</t>
+  </si>
+  <si>
+    <t>SU_A0900</t>
+  </si>
+  <si>
+    <t>SU_A1000</t>
+  </si>
+  <si>
+    <t>SU_A1100</t>
+  </si>
+  <si>
+    <t>SU_A1200</t>
+  </si>
+  <si>
+    <t>SU_A1300</t>
+  </si>
+  <si>
+    <t>SU_A1400</t>
+  </si>
+  <si>
+    <t>SU_A1500</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>FR_A0100</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>FR_A0200</t>
+  </si>
+  <si>
+    <t>FR_A0300</t>
+  </si>
+  <si>
+    <t>FR_A0400</t>
+  </si>
+  <si>
+    <t>FR_A0500</t>
+  </si>
+  <si>
+    <t>FR_A0600</t>
+  </si>
+  <si>
+    <t>FR_A0700</t>
+  </si>
+  <si>
+    <t>FR_A0800</t>
+  </si>
+  <si>
+    <t>Engine &amp; Drivetrain</t>
+  </si>
+  <si>
+    <t>Chassis &amp; Body</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Miscellaneous, Finish &amp; assembly</t>
+  </si>
+  <si>
+    <t>MS_A0100</t>
+  </si>
+  <si>
+    <t>MS_A0200</t>
+  </si>
+  <si>
+    <t>MS_A0300</t>
+  </si>
+  <si>
+    <t>MS_A0400</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>EL_A0100</t>
+  </si>
+  <si>
+    <t>EL_A0200</t>
+  </si>
+  <si>
+    <t>EL_A0300</t>
+  </si>
+  <si>
+    <t>EL_A0400</t>
+  </si>
+  <si>
+    <t>EL_A0500</t>
+  </si>
+  <si>
+    <t>EL_A0600</t>
+  </si>
+  <si>
+    <t>EL_A0700</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>WT_A0100</t>
+  </si>
+  <si>
+    <t>Wheels, wheel bearings &amp; Tires</t>
+  </si>
+  <si>
+    <t>WT_A0200</t>
+  </si>
+  <si>
+    <t>WT_A0300</t>
+  </si>
+  <si>
+    <t>Exhaust system</t>
+  </si>
+  <si>
+    <t>Air intake system</t>
+  </si>
+  <si>
+    <t>Throttle body</t>
+  </si>
+  <si>
+    <t>Fuel system</t>
+  </si>
+  <si>
+    <t>Fuel tank</t>
+  </si>
+  <si>
+    <t>Brake system front</t>
+  </si>
+  <si>
+    <t>Brake system rear</t>
+  </si>
+  <si>
+    <t>Balance bar</t>
+  </si>
+  <si>
+    <t>BR_A0400</t>
+  </si>
+  <si>
+    <t>Drivetrain assembly</t>
+  </si>
+  <si>
+    <t>Cooling system</t>
+  </si>
+  <si>
+    <t>Overflow bottles</t>
+  </si>
+  <si>
+    <t>Catch cans</t>
+  </si>
+  <si>
+    <t>Shifter</t>
+  </si>
+  <si>
+    <t>Pas dans propo, à raj</t>
+  </si>
+  <si>
+    <t>Steering rack</t>
+  </si>
+  <si>
+    <t>Steering shaft</t>
+  </si>
+  <si>
+    <t>Steering wheel</t>
+  </si>
+  <si>
+    <t>Steering wheel quick release</t>
+  </si>
+  <si>
+    <t>Tie rods</t>
+  </si>
+  <si>
+    <t>Upper Front A-Arms</t>
+  </si>
+  <si>
+    <t>Lower Front A-Arms</t>
+  </si>
+  <si>
+    <t>Upper Rear A-Arms</t>
+  </si>
+  <si>
+    <t>Lower Rear A-Arms</t>
+  </si>
+  <si>
+    <t>Shocks front</t>
+  </si>
+  <si>
+    <t>Bell cranks front</t>
+  </si>
+  <si>
+    <t>Shocks rear</t>
+  </si>
+  <si>
+    <t>Bell cranks rear</t>
+  </si>
+  <si>
+    <t>Rear Tie-rod</t>
+  </si>
+  <si>
+    <t>Pushrod front</t>
+  </si>
+  <si>
+    <t>Pushrod rear</t>
+  </si>
+  <si>
+    <t>Anti roll bar front</t>
+  </si>
+  <si>
+    <t>Anti roll bar rear</t>
+  </si>
+  <si>
+    <t>Clutch actuation system</t>
+  </si>
+  <si>
+    <t>Impact attenuator</t>
+  </si>
+  <si>
+    <t>Pedals</t>
+  </si>
+  <si>
+    <t>Floor pan</t>
+  </si>
+  <si>
+    <t>palettes inclues</t>
+  </si>
+  <si>
+    <t>Brackets</t>
+  </si>
+  <si>
+    <t>Bodywork</t>
+  </si>
+  <si>
+    <t>Pas dans proposition (chelou) à raj</t>
+  </si>
+  <si>
+    <t>Front uprights</t>
+  </si>
+  <si>
+    <t>Rear uprtights</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>Headrest/restraint</t>
+  </si>
+  <si>
+    <t>où metttre roll bar padding</t>
+  </si>
+  <si>
+    <t>Driver's harness</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheels </t>
+  </si>
+  <si>
+    <t>Jantes + pneus (dry tires, les mettre le jour de la compet)</t>
+  </si>
+  <si>
+    <t>Front hubs</t>
+  </si>
+  <si>
+    <t>Rear hubs</t>
+  </si>
+  <si>
+    <t>Hubs + bearings + …</t>
   </si>
 </sst>
 </file>
@@ -151,7 +448,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +482,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA64D79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5A6BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF674EA7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -240,15 +597,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,18 +917,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,7 +958,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -581,8 +969,8 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>28</v>
+      <c r="C3" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -594,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -606,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -614,281 +1002,711 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="C24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
   <si>
     <t>Asm</t>
   </si>
@@ -86,9 +86,6 @@
     <t>EN_A0800</t>
   </si>
   <si>
-    <t>EN_A0900</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>Fuel system</t>
   </si>
   <si>
-    <t>Fuel tank</t>
-  </si>
-  <si>
     <t>Brake system front</t>
   </si>
   <si>
@@ -305,9 +299,6 @@
     <t>Shifter</t>
   </si>
   <si>
-    <t>Pas dans propo, à raj</t>
-  </si>
-  <si>
     <t>Steering rack</t>
   </si>
   <si>
@@ -389,18 +380,12 @@
     <t>Front uprights</t>
   </si>
   <si>
-    <t>Rear uprtights</t>
-  </si>
-  <si>
     <t>Firewall</t>
   </si>
   <si>
     <t>Headrest/restraint</t>
   </si>
   <si>
-    <t>où metttre roll bar padding</t>
-  </si>
-  <si>
     <t>Driver's harness</t>
   </si>
   <si>
@@ -410,9 +395,6 @@
     <t xml:space="preserve">Wheels </t>
   </si>
   <si>
-    <t>Jantes + pneus (dry tires, les mettre le jour de la compet)</t>
-  </si>
-  <si>
     <t>Front hubs</t>
   </si>
   <si>
@@ -420,6 +402,114 @@
   </si>
   <si>
     <t>Hubs + bearings + …</t>
+  </si>
+  <si>
+    <t>circuit de freinage avant, du bas du maitre cylindre à l'étrier/plaquette de frein compris</t>
+  </si>
+  <si>
+    <t>circuit de freinage arrière, du bas du maitre cylindre à l'étrier/plaquette de frein compris</t>
+  </si>
+  <si>
+    <t>Mis ici car Breaking system fait parti du DBOM (voir avec ABR)</t>
+  </si>
+  <si>
+    <t>Moteur, carter d'huile, filtre à huile, bougies, … Bien différencié achat moteur d'origine puis achat des consommables (disques embrayages, …) et anti dribble, …</t>
+  </si>
+  <si>
+    <t>Silencieux compris</t>
+  </si>
+  <si>
+    <t>Sauf guillotine + bride</t>
+  </si>
+  <si>
+    <t>Pas dans propo, à raj. Faire un sous assemblage pour fuel tank</t>
+  </si>
+  <si>
+    <t>Juste volant</t>
+  </si>
+  <si>
+    <t>partie cannelé quick release, pivot de direction, joint de cardan, colonne de direction, spline coupler</t>
+  </si>
+  <si>
+    <t>Sans partie cannelé soudé au pivot</t>
+  </si>
+  <si>
+    <t>Crémaillère</t>
+  </si>
+  <si>
+    <t>Biellettes</t>
+  </si>
+  <si>
+    <t>Rear uprights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barre anti-roulis, avec biellettes, couteaux, </t>
+  </si>
+  <si>
+    <t>Amortisseurs avant</t>
+  </si>
+  <si>
+    <t>Basculeurs avant</t>
+  </si>
+  <si>
+    <t>Amortisseurs arrière</t>
+  </si>
+  <si>
+    <t>Basculeurs arrière</t>
+  </si>
+  <si>
+    <t>Structure tubulaire</t>
+  </si>
+  <si>
+    <t>Sans maitre cylindres et répartiteur !</t>
+  </si>
+  <si>
+    <t>Toutes les chapes du véhicule soudées au châssis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manettes + cable </t>
+  </si>
+  <si>
+    <t>où metttre roll bar padding, mousse appui tête, plaque alu</t>
+  </si>
+  <si>
+    <t>Jantes + pneus (dry tires, les mettre sur le véhicule le jour de la compet)</t>
+  </si>
+  <si>
+    <t>Erwan De Longcamp</t>
+  </si>
+  <si>
+    <t>Benjamin Delalande</t>
+  </si>
+  <si>
+    <t>Maxime Proriol</t>
+  </si>
+  <si>
+    <t>Clément Emerique</t>
+  </si>
+  <si>
+    <t>Baptiste Vidal</t>
+  </si>
+  <si>
+    <t>Mathieu Pinay</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Aurélien Bienner</t>
+  </si>
+  <si>
+    <t>Robin Clamens</t>
+  </si>
+  <si>
+    <t>Crash box seule</t>
+  </si>
+  <si>
+    <t>Paco Tanchon</t>
+  </si>
+  <si>
+    <t>Josselin Kiefel</t>
   </si>
 </sst>
 </file>
@@ -917,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +1018,7 @@
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="42.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -958,34 +1048,42 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -994,22 +1092,30 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1018,13 +1124,13 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -1032,8 +1138,12 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,10 +1152,14 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1054,10 +1168,14 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1066,10 +1184,12 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1078,10 +1198,14 @@
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1090,12 +1214,12 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1104,13 +1228,15 @@
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -1118,35 +1244,41 @@
       <c r="C15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -1154,22 +1286,30 @@
         <v>25</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1178,10 +1318,14 @@
         <v>27</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1190,35 +1334,39 @@
         <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
@@ -1226,10 +1374,12 @@
         <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1238,10 +1388,12 @@
         <v>33</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1250,10 +1402,12 @@
         <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1262,9 +1416,11 @@
         <v>35</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
@@ -1274,9 +1430,11 @@
         <v>36</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
@@ -1286,9 +1444,11 @@
         <v>37</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
@@ -1298,9 +1458,11 @@
         <v>38</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
@@ -1310,10 +1472,12 @@
         <v>39</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1322,7 +1486,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -1334,7 +1498,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -1346,10 +1510,14 @@
         <v>42</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1358,10 +1526,14 @@
         <v>43</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1370,9 +1542,11 @@
         <v>44</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
@@ -1382,46 +1556,54 @@
         <v>45</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11" t="s">
+    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="C39" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+        <v>114</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1430,10 +1612,14 @@
         <v>50</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1442,10 +1628,14 @@
         <v>51</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1454,10 +1644,12 @@
         <v>52</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="E43" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1466,9 +1658,11 @@
         <v>53</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
@@ -1478,10 +1672,10 @@
         <v>54</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -1492,37 +1686,37 @@
         <v>55</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="13" t="s">
+    <row r="47" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
@@ -1530,9 +1724,11 @@
         <v>61</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
     </row>
@@ -1542,11 +1738,9 @@
         <v>62</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>124</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
     </row>
@@ -1556,35 +1750,33 @@
         <v>63</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15" t="s">
+    <row r="52" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-    </row>
-    <row r="53" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16" t="s">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
@@ -1646,38 +1838,42 @@
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17" t="s">
+    <row r="60" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="18" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="19"/>
       <c r="B62" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
@@ -1688,25 +1884,13 @@
         <v>77</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="165">
   <si>
     <t>Asm</t>
   </si>
@@ -365,9 +365,6 @@
     <t>Floor pan</t>
   </si>
   <si>
-    <t>palettes inclues</t>
-  </si>
-  <si>
     <t>Brackets</t>
   </si>
   <si>
@@ -510,6 +507,18 @@
   </si>
   <si>
     <t>Josselin Kiefel</t>
+  </si>
+  <si>
+    <t>A préciser</t>
+  </si>
+  <si>
+    <t>Mathieu Jacquet</t>
+  </si>
+  <si>
+    <t>Pierre-Alexis Corpechot</t>
+  </si>
+  <si>
+    <t>Arthur Perdereau</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1028,7 @@
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="42.88671875" customWidth="1"/>
     <col min="4" max="4" width="62.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,10 +1072,10 @@
         <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1079,10 +1088,10 @@
         <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1095,10 +1104,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -1111,10 +1120,10 @@
         <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -1139,10 +1148,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -1155,10 +1164,10 @@
         <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -1171,10 +1180,10 @@
         <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -1188,7 +1197,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -1201,10 +1210,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -1218,7 +1227,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1232,7 +1241,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1248,7 +1257,7 @@
         <v>89</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -1273,10 +1282,10 @@
         <v>93</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -1289,10 +1298,10 @@
         <v>94</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1305,10 +1314,10 @@
         <v>92</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1321,10 +1330,10 @@
         <v>91</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -1338,7 +1347,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -1364,7 +1373,7 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -1378,7 +1387,7 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="11"/>
     </row>
@@ -1392,7 +1401,7 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F25" s="11"/>
     </row>
@@ -1406,7 +1415,7 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F26" s="11"/>
     </row>
@@ -1419,9 +1428,11 @@
         <v>100</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="11"/>
+        <v>139</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1433,9 +1444,11 @@
         <v>101</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1447,9 +1460,11 @@
         <v>102</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1461,9 +1476,11 @@
         <v>103</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1476,7 +1493,7 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="11"/>
     </row>
@@ -1486,10 +1503,12 @@
         <v>40</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1498,10 +1517,12 @@
         <v>41</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1513,10 +1534,10 @@
         <v>105</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F34" s="11"/>
     </row>
@@ -1529,10 +1550,10 @@
         <v>106</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F35" s="11"/>
     </row>
@@ -1545,9 +1566,11 @@
         <v>107</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1559,7 +1582,9 @@
         <v>108</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1583,10 +1608,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" s="13"/>
     </row>
@@ -1596,13 +1621,13 @@
         <v>49</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F40" s="13"/>
     </row>
@@ -1615,10 +1640,10 @@
         <v>110</v>
       </c>
       <c r="D41" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="F41" s="13"/>
     </row>
@@ -1631,10 +1656,10 @@
         <v>111</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F42" s="13"/>
     </row>
@@ -1648,7 +1673,7 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F43" s="13"/>
     </row>
@@ -1661,9 +1686,11 @@
         <v>90</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="13"/>
+        <v>161</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1675,9 +1702,11 @@
         <v>109</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="13"/>
+        <v>146</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1686,12 +1715,14 @@
         <v>55</v>
       </c>
       <c r="C46" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="13"/>
+      <c r="E46" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1712,10 +1743,12 @@
         <v>60</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="E48" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1724,12 +1757,14 @@
         <v>61</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="15"/>
+        <v>147</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1738,10 +1773,12 @@
         <v>62</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="E50" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1750,10 +1787,12 @@
         <v>63</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
+      <c r="E51" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="F51" s="15"/>
     </row>
     <row r="52" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1775,7 +1814,9 @@
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="E53" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1785,7 +1826,9 @@
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1795,7 +1838,9 @@
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="E55" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1805,7 +1850,9 @@
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
+      <c r="E56" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1815,7 +1862,9 @@
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="E57" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1825,7 +1874,9 @@
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="E58" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1835,7 +1886,9 @@
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="E59" s="17" t="s">
+        <v>155</v>
+      </c>
       <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1856,12 +1909,14 @@
         <v>74</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="19"/>
+        <v>148</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>164</v>
+      </c>
       <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1870,12 +1925,14 @@
         <v>76</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="19"/>
+        <v>124</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>164</v>
+      </c>
       <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1884,12 +1941,14 @@
         <v>77</v>
       </c>
       <c r="C63" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" s="19"/>
+      <c r="E63" s="19" t="s">
+        <v>164</v>
+      </c>
       <c r="F63" s="19"/>
     </row>
   </sheetData>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
   <si>
     <t>Asm</t>
   </si>
@@ -410,9 +410,6 @@
     <t>Mis ici car Breaking system fait parti du DBOM (voir avec ABR)</t>
   </si>
   <si>
-    <t>Moteur, carter d'huile, filtre à huile, bougies, … Bien différencié achat moteur d'origine puis achat des consommables (disques embrayages, …) et anti dribble, …</t>
-  </si>
-  <si>
     <t>Silencieux compris</t>
   </si>
   <si>
@@ -519,6 +516,54 @@
   </si>
   <si>
     <t>Arthur Perdereau</t>
+  </si>
+  <si>
+    <t>Calixthe</t>
+  </si>
+  <si>
+    <t>Dash panel</t>
+  </si>
+  <si>
+    <t>Tous les capteurs non branchés au DTA + pression frein, connecteurs des capteurs, connecteurs PPF des capteurs, connecteur MK3, MK3, fils faisceau capteurs</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Wire Harness/Connectors</t>
+  </si>
+  <si>
+    <t>Tous les fils sauf faisceau grande puissance et faisceau capteurs, Brake light, DTA, cosses vers masse, épissures, Capteurs reliés au DTA (sauf pression frein), Connecteurs des capteurs du DTA, Connecteurs du faisceau principal (sauf ceux inclus dans autres assemblages)</t>
+  </si>
+  <si>
+    <t>LV-Battery</t>
+  </si>
+  <si>
+    <t>Batterie, support de batterie, cosses batterie, fusible 250A, master switch, relais de démareur, faisceau de démarreur, régulateur (si nécessaire, v</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Relais, fusibles présents dans la boîte à fusible, boite à fusible</t>
+  </si>
+  <si>
+    <t>Kill Switch</t>
+  </si>
+  <si>
+    <t>BSPD, 2 kill switch arrière, kill switch TdB, BOTS, crash sensor</t>
+  </si>
+  <si>
+    <t>Control Unit</t>
+  </si>
+  <si>
+    <t>Moteur, carter d'huile, filtre à huile, bougies, axe motored… Bien différencié achat moteur d'origine puis achat des consommables (disques embrayages, …) et anti dribble, …</t>
+  </si>
+  <si>
+    <t>Tableau de bord, éléments du TdB, boitier élec avant</t>
+  </si>
+  <si>
+    <t>Boîtier électronique shifter, câble boitier-motored, motored, support du motored, palettes</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1072,7 @@
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="42.88671875" customWidth="1"/>
-    <col min="4" max="4" width="62.6640625" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1075,7 +1120,7 @@
         <v>125</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1091,7 +1136,7 @@
         <v>126</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1107,7 +1152,7 @@
         <v>127</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -1123,7 +1168,7 @@
         <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -1148,10 +1193,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -1164,10 +1209,10 @@
         <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -1180,10 +1225,10 @@
         <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -1197,7 +1242,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -1210,10 +1255,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -1227,7 +1272,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1241,7 +1286,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1257,7 +1302,7 @@
         <v>89</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -1282,10 +1327,10 @@
         <v>93</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -1298,10 +1343,10 @@
         <v>94</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1314,10 +1359,10 @@
         <v>92</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1330,10 +1375,10 @@
         <v>91</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -1347,7 +1392,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -1373,7 +1418,7 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -1387,7 +1432,7 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" s="11"/>
     </row>
@@ -1401,7 +1446,7 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" s="11"/>
     </row>
@@ -1415,7 +1460,7 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="11"/>
     </row>
@@ -1428,10 +1473,10 @@
         <v>100</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F27" s="11"/>
     </row>
@@ -1444,10 +1489,10 @@
         <v>101</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" s="11"/>
     </row>
@@ -1460,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F29" s="11"/>
     </row>
@@ -1476,10 +1521,10 @@
         <v>103</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F30" s="11"/>
     </row>
@@ -1493,7 +1538,7 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F31" s="11"/>
     </row>
@@ -1507,7 +1552,7 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" s="11"/>
     </row>
@@ -1517,11 +1562,11 @@
         <v>41</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="11"/>
     </row>
@@ -1534,10 +1579,10 @@
         <v>105</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F34" s="11"/>
     </row>
@@ -1550,10 +1595,10 @@
         <v>106</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F35" s="11"/>
     </row>
@@ -1566,10 +1611,10 @@
         <v>107</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F36" s="11"/>
     </row>
@@ -1583,7 +1628,7 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F37" s="11"/>
     </row>
@@ -1608,10 +1653,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" s="13"/>
     </row>
@@ -1624,10 +1669,10 @@
         <v>113</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F40" s="13"/>
     </row>
@@ -1640,10 +1685,10 @@
         <v>110</v>
       </c>
       <c r="D41" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="F41" s="13"/>
     </row>
@@ -1656,10 +1701,10 @@
         <v>111</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="13"/>
     </row>
@@ -1673,7 +1718,7 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F43" s="13"/>
     </row>
@@ -1686,10 +1731,10 @@
         <v>90</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F44" s="13"/>
     </row>
@@ -1702,10 +1747,10 @@
         <v>109</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F45" s="13"/>
     </row>
@@ -1721,7 +1766,7 @@
         <v>115</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F46" s="13"/>
     </row>
@@ -1747,7 +1792,7 @@
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F48" s="15"/>
     </row>
@@ -1760,10 +1805,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F49" s="15"/>
     </row>
@@ -1777,7 +1822,7 @@
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F50" s="15"/>
     </row>
@@ -1791,7 +1836,7 @@
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F51" s="15"/>
     </row>
@@ -1812,46 +1857,62 @@
       <c r="B53" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="C53" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="E53" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="C54" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="E54" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="C55" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="E55" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="C56" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="E56" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F56" s="17"/>
     </row>
@@ -1860,10 +1921,14 @@
       <c r="B57" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
+      <c r="C57" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>173</v>
+      </c>
       <c r="E57" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F57" s="17"/>
     </row>
@@ -1872,22 +1937,30 @@
       <c r="B58" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>175</v>
+      </c>
       <c r="E58" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
+      <c r="C59" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>179</v>
+      </c>
       <c r="E59" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F59" s="17"/>
     </row>
@@ -1912,10 +1985,10 @@
         <v>121</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F61" s="19"/>
     </row>
@@ -1931,7 +2004,7 @@
         <v>124</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F62" s="19"/>
     </row>
@@ -1947,7 +2020,7 @@
         <v>124</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F63" s="19"/>
     </row>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="181">
   <si>
     <t>Asm</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>Boîtier électronique shifter, câble boitier-motored, motored, support du motored, palettes</t>
+  </si>
+  <si>
+    <t>Antoine Maros</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,7 +1275,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1302,7 +1305,7 @@
         <v>89</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F15" s="4"/>
     </row>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -488,9 +488,6 @@
     <t>Mathieu Pinay</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Aurélien Bienner</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>Antoine Maros</t>
+  </si>
+  <si>
+    <t>Romain Martin</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>150</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1333,7 +1333,7 @@
         <v>131</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -1349,7 +1349,7 @@
         <v>133</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1365,7 +1365,7 @@
         <v>132</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1381,7 +1381,7 @@
         <v>134</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F24" s="11"/>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="11"/>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F26" s="11"/>
     </row>
@@ -1479,7 +1479,7 @@
         <v>138</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27" s="11"/>
     </row>
@@ -1495,7 +1495,7 @@
         <v>139</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="11"/>
     </row>
@@ -1511,7 +1511,7 @@
         <v>140</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29" s="11"/>
     </row>
@@ -1527,7 +1527,7 @@
         <v>141</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F30" s="11"/>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" s="11"/>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F32" s="11"/>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F33" s="11"/>
     </row>
@@ -1585,7 +1585,7 @@
         <v>135</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F34" s="11"/>
     </row>
@@ -1601,7 +1601,7 @@
         <v>135</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F35" s="11"/>
     </row>
@@ -1617,7 +1617,7 @@
         <v>137</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F36" s="11"/>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37" s="11"/>
     </row>
@@ -1659,7 +1659,7 @@
         <v>142</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F39" s="13"/>
     </row>
@@ -1675,7 +1675,7 @@
         <v>144</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F40" s="13"/>
     </row>
@@ -1688,10 +1688,10 @@
         <v>110</v>
       </c>
       <c r="D41" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="F41" s="13"/>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43" s="13"/>
     </row>
@@ -1734,7 +1734,7 @@
         <v>90</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>150</v>
@@ -1753,7 +1753,7 @@
         <v>145</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" s="13"/>
     </row>
@@ -1769,7 +1769,7 @@
         <v>115</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46" s="13"/>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F48" s="15"/>
     </row>
@@ -1811,7 +1811,7 @@
         <v>146</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F49" s="15"/>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F50" s="15"/>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F51" s="15"/>
     </row>
@@ -1861,13 +1861,13 @@
         <v>66</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F53" s="17"/>
     </row>
@@ -1877,13 +1877,13 @@
         <v>67</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F54" s="17"/>
     </row>
@@ -1893,13 +1893,13 @@
         <v>68</v>
       </c>
       <c r="C55" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>169</v>
-      </c>
       <c r="E55" s="17" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F55" s="17"/>
     </row>
@@ -1909,13 +1909,13 @@
         <v>69</v>
       </c>
       <c r="C56" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>171</v>
-      </c>
       <c r="E56" s="17" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F56" s="17"/>
     </row>
@@ -1925,13 +1925,13 @@
         <v>70</v>
       </c>
       <c r="C57" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>173</v>
-      </c>
       <c r="E57" s="17" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F57" s="17"/>
     </row>
@@ -1941,13 +1941,13 @@
         <v>71</v>
       </c>
       <c r="C58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>175</v>
-      </c>
       <c r="E58" s="17" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F58" s="17"/>
     </row>
@@ -1957,13 +1957,13 @@
         <v>72</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F59" s="17"/>
     </row>
@@ -1991,7 +1991,7 @@
         <v>147</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F61" s="19"/>
     </row>
@@ -2007,7 +2007,7 @@
         <v>124</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F62" s="19"/>
     </row>
@@ -2023,7 +2023,7 @@
         <v>124</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F63" s="19"/>
     </row>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
   <si>
     <t>Asm</t>
   </si>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>Crash box seule</t>
-  </si>
-  <si>
-    <t>Paco Tanchon</t>
   </si>
   <si>
     <t>Josselin Kiefel</t>
@@ -1066,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:E59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,7 +1193,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>150</v>
@@ -1275,7 +1272,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1479,7 +1476,7 @@
         <v>138</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="11"/>
     </row>
@@ -1495,7 +1492,7 @@
         <v>139</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="11"/>
     </row>
@@ -1511,7 +1508,7 @@
         <v>140</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F29" s="11"/>
     </row>
@@ -1527,7 +1524,7 @@
         <v>141</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F30" s="11"/>
     </row>
@@ -1555,7 +1552,7 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F32" s="11"/>
     </row>
@@ -1569,7 +1566,7 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33" s="11"/>
     </row>
@@ -1617,7 +1614,7 @@
         <v>137</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F36" s="11"/>
     </row>
@@ -1631,7 +1628,7 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F37" s="11"/>
     </row>
@@ -1691,7 +1688,7 @@
         <v>156</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F41" s="13"/>
     </row>
@@ -1721,7 +1718,7 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F43" s="13"/>
     </row>
@@ -1734,7 +1731,7 @@
         <v>90</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>150</v>
@@ -1753,7 +1750,7 @@
         <v>145</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F45" s="13"/>
     </row>
@@ -1769,7 +1766,7 @@
         <v>115</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F46" s="13"/>
     </row>
@@ -1795,7 +1792,7 @@
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F48" s="15"/>
     </row>
@@ -1811,7 +1808,7 @@
         <v>146</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F49" s="15"/>
     </row>
@@ -1825,7 +1822,7 @@
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F50" s="15"/>
     </row>
@@ -1839,7 +1836,7 @@
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F51" s="15"/>
     </row>
@@ -1861,13 +1858,13 @@
         <v>66</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" s="17"/>
     </row>
@@ -1877,13 +1874,13 @@
         <v>67</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F54" s="17"/>
     </row>
@@ -1893,13 +1890,13 @@
         <v>68</v>
       </c>
       <c r="C55" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>168</v>
-      </c>
       <c r="E55" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F55" s="17"/>
     </row>
@@ -1909,13 +1906,13 @@
         <v>69</v>
       </c>
       <c r="C56" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>170</v>
-      </c>
       <c r="E56" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F56" s="17"/>
     </row>
@@ -1925,13 +1922,13 @@
         <v>70</v>
       </c>
       <c r="C57" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>172</v>
-      </c>
       <c r="E57" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F57" s="17"/>
     </row>
@@ -1941,13 +1938,13 @@
         <v>71</v>
       </c>
       <c r="C58" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>174</v>
-      </c>
       <c r="E58" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F58" s="17"/>
     </row>
@@ -1957,13 +1954,13 @@
         <v>72</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F59" s="17"/>
     </row>
@@ -1991,7 +1988,7 @@
         <v>147</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F61" s="19"/>
     </row>
@@ -2007,7 +2004,7 @@
         <v>124</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F62" s="19"/>
     </row>
@@ -2023,7 +2020,7 @@
         <v>124</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F63" s="19"/>
     </row>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="181">
   <si>
     <t>Asm</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>Romain Martin</t>
+  </si>
+  <si>
+    <t>Guillaume Touzé</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1349,7 @@
         <v>133</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1362,7 +1365,7 @@
         <v>132</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F19" s="8"/>
     </row>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="178">
   <si>
     <t>Asm</t>
   </si>
@@ -191,9 +191,6 @@
     <t>FR_A0700</t>
   </si>
   <si>
-    <t>FR_A0800</t>
-  </si>
-  <si>
     <t>Engine &amp; Drivetrain</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>Catch cans</t>
   </si>
   <si>
-    <t>Shifter</t>
-  </si>
-  <si>
     <t>Steering rack</t>
   </si>
   <si>
@@ -461,9 +455,6 @@
     <t>Toutes les chapes du véhicule soudées au châssis</t>
   </si>
   <si>
-    <t xml:space="preserve">Manettes + cable </t>
-  </si>
-  <si>
     <t>où metttre roll bar padding, mousse appui tête, plaque alu</t>
   </si>
   <si>
@@ -500,9 +491,6 @@
     <t>Josselin Kiefel</t>
   </si>
   <si>
-    <t>A préciser</t>
-  </si>
-  <si>
     <t>Mathieu Jacquet</t>
   </si>
   <si>
@@ -567,6 +555,9 @@
   </si>
   <si>
     <t>Guillaume Touzé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manette + cable </t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,13 +1108,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1133,13 +1124,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1152,26 +1143,26 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -1181,7 +1172,7 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -1196,10 +1187,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -1209,13 +1200,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -1225,13 +1216,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -1241,11 +1232,11 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -1255,13 +1246,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -1271,11 +1262,11 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1285,11 +1276,11 @@
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1299,13 +1290,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -1327,13 +1318,13 @@
         <v>24</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17" s="8"/>
     </row>
@@ -1343,13 +1334,13 @@
         <v>25</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1359,13 +1350,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1375,13 +1366,13 @@
         <v>27</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -1391,11 +1382,11 @@
         <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -1417,11 +1408,11 @@
         <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -1431,11 +1422,11 @@
         <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24" s="11"/>
     </row>
@@ -1445,11 +1436,11 @@
         <v>33</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25" s="11"/>
     </row>
@@ -1459,11 +1450,11 @@
         <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26" s="11"/>
     </row>
@@ -1473,13 +1464,13 @@
         <v>35</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F27" s="11"/>
     </row>
@@ -1489,13 +1480,13 @@
         <v>36</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F28" s="11"/>
     </row>
@@ -1505,13 +1496,13 @@
         <v>37</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F29" s="11"/>
     </row>
@@ -1521,13 +1512,13 @@
         <v>38</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F30" s="11"/>
     </row>
@@ -1537,11 +1528,11 @@
         <v>39</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F31" s="11"/>
     </row>
@@ -1551,11 +1542,11 @@
         <v>40</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F32" s="11"/>
     </row>
@@ -1565,11 +1556,11 @@
         <v>41</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F33" s="11"/>
     </row>
@@ -1579,13 +1570,13 @@
         <v>42</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F34" s="11"/>
     </row>
@@ -1595,13 +1586,13 @@
         <v>43</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F35" s="11"/>
     </row>
@@ -1611,13 +1602,13 @@
         <v>44</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F36" s="11"/>
     </row>
@@ -1627,11 +1618,11 @@
         <v>45</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F37" s="11"/>
     </row>
@@ -1641,7 +1632,7 @@
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -1656,10 +1647,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F39" s="13"/>
     </row>
@@ -1669,13 +1660,13 @@
         <v>49</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F40" s="13"/>
     </row>
@@ -1685,13 +1676,13 @@
         <v>50</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F41" s="13"/>
     </row>
@@ -1701,13 +1692,13 @@
         <v>51</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F42" s="13"/>
     </row>
@@ -1717,11 +1708,11 @@
         <v>52</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F43" s="13"/>
     </row>
@@ -1731,13 +1722,13 @@
         <v>53</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F44" s="13"/>
     </row>
@@ -1747,43 +1738,41 @@
         <v>54</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="13" t="s">
+    <row r="46" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
@@ -1791,11 +1780,13 @@
         <v>60</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="E48" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F48" s="15"/>
     </row>
@@ -1805,13 +1796,11 @@
         <v>61</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>146</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D49" s="15"/>
       <c r="E49" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F49" s="15"/>
     </row>
@@ -1821,101 +1810,103 @@
         <v>62</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15" t="s">
+    <row r="51" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F56" s="17"/>
     </row>
@@ -1925,73 +1916,73 @@
         <v>70</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>173</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17" t="s">
+    <row r="59" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="18" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
+      <c r="C60" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F60" s="19"/>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="19"/>
       <c r="B61" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F61" s="19"/>
     </row>
@@ -2001,31 +1992,15 @@
         <v>76</v>
       </c>
       <c r="C62" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="19" t="s">
-        <v>124</v>
-      </c>
       <c r="E62" s="19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
   <si>
     <t>Asm</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t xml:space="preserve">Manette + cable </t>
+  </si>
+  <si>
+    <t>Michele Schio</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1966,7 +1969,7 @@
         <v>144</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="F60" s="19"/>
     </row>
@@ -1982,7 +1985,7 @@
         <v>122</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="F61" s="19"/>
     </row>
@@ -1998,7 +2001,7 @@
         <v>122</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="F62" s="19"/>
     </row>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -500,9 +500,6 @@
     <t>Arthur Perdereau</t>
   </si>
   <si>
-    <t>Calixthe</t>
-  </si>
-  <si>
     <t>Dash panel</t>
   </si>
   <si>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t>Michele Schio</t>
+  </si>
+  <si>
+    <t>Calixthe Mattei</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>147</v>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1343,7 +1343,7 @@
         <v>131</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1359,7 +1359,7 @@
         <v>130</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1728,7 +1728,7 @@
         <v>107</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>155</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F47" s="15"/>
     </row>
@@ -1789,7 +1789,7 @@
         <v>143</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F48" s="15"/>
     </row>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F49" s="15"/>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F50" s="15"/>
     </row>
@@ -1839,13 +1839,13 @@
         <v>65</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F52" s="17"/>
     </row>
@@ -1855,13 +1855,13 @@
         <v>66</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F53" s="17"/>
     </row>
@@ -1871,13 +1871,13 @@
         <v>67</v>
       </c>
       <c r="C54" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="E54" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F54" s="17"/>
     </row>
@@ -1887,13 +1887,13 @@
         <v>68</v>
       </c>
       <c r="C55" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E55" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F55" s="17"/>
     </row>
@@ -1903,13 +1903,13 @@
         <v>69</v>
       </c>
       <c r="C56" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>167</v>
-      </c>
       <c r="E56" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F56" s="17"/>
     </row>
@@ -1919,13 +1919,13 @@
         <v>70</v>
       </c>
       <c r="C57" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>169</v>
-      </c>
       <c r="E57" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F57" s="17"/>
     </row>
@@ -1935,13 +1935,13 @@
         <v>71</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F58" s="17"/>
     </row>
@@ -1969,7 +1969,7 @@
         <v>144</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F60" s="19"/>
     </row>
@@ -1985,7 +1985,7 @@
         <v>122</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F61" s="19"/>
     </row>
@@ -2001,7 +2001,7 @@
         <v>122</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F62" s="19"/>
     </row>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
   <si>
     <t>Asm</t>
   </si>
@@ -410,9 +410,6 @@
     <t>Sauf guillotine + bride</t>
   </si>
   <si>
-    <t>Pas dans propo, à raj. Faire un sous assemblage pour fuel tank</t>
-  </si>
-  <si>
     <t>Juste volant</t>
   </si>
   <si>
@@ -561,6 +558,15 @@
   </si>
   <si>
     <t>Calixthe Mattei</t>
+  </si>
+  <si>
+    <t>Pas dans propo, à raj. Ne comprends pas le fuel tank</t>
+  </si>
+  <si>
+    <t>EN_A0900</t>
+  </si>
+  <si>
+    <t>Fuel tank</t>
   </si>
 </sst>
 </file>
@@ -687,27 +693,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -729,20 +720,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -750,7 +742,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -773,9 +764,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1058,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1105,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1133,7 +1121,7 @@
         <v>124</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1149,7 +1137,7 @@
         <v>125</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -1165,21 +1153,21 @@
         <v>125</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -1190,10 +1178,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -1209,7 +1197,7 @@
         <v>126</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -1225,7 +1213,7 @@
         <v>127</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -1239,7 +1227,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -1252,10 +1240,10 @@
         <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -1269,7 +1257,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1283,11 +1271,11 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -1299,711 +1287,725 @@
         <v>88</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="E20" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
+      <c r="E21" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>136</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="E31" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="11" t="s">
         <v>133</v>
       </c>
+      <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="13"/>
+        <v>109</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="E43" s="13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>176</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>154</v>
       </c>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>143</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="E49" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F52" s="17"/>
-    </row>
-    <row r="53" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="59" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
+      <c r="C59" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19" t="s">
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19" t="s">
+      <c r="D61" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19" t="s">
+      <c r="E62" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C63" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F62" s="19"/>
+      <c r="E63" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\STUF2019\CR - Cost Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBCFE8F-710B-4DD5-9A07-EEFEB77536EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-8235" yWindow="4320" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -500,30 +507,18 @@
     <t>Dash panel</t>
   </si>
   <si>
-    <t>Tous les capteurs non branchés au DTA + pression frein, connecteurs des capteurs, connecteurs PPF des capteurs, connecteur MK3, MK3, fils faisceau capteurs</t>
-  </si>
-  <si>
     <t>Sensors</t>
   </si>
   <si>
     <t>Wire Harness/Connectors</t>
   </si>
   <si>
-    <t>Tous les fils sauf faisceau grande puissance et faisceau capteurs, Brake light, DTA, cosses vers masse, épissures, Capteurs reliés au DTA (sauf pression frein), Connecteurs des capteurs du DTA, Connecteurs du faisceau principal (sauf ceux inclus dans autres assemblages)</t>
-  </si>
-  <si>
     <t>LV-Battery</t>
   </si>
   <si>
-    <t>Batterie, support de batterie, cosses batterie, fusible 250A, master switch, relais de démareur, faisceau de démarreur, régulateur (si nécessaire, v</t>
-  </si>
-  <si>
     <t>Fuse</t>
   </si>
   <si>
-    <t>Relais, fusibles présents dans la boîte à fusible, boite à fusible</t>
-  </si>
-  <si>
     <t>Kill Switch</t>
   </si>
   <si>
@@ -567,13 +562,131 @@
   </si>
   <si>
     <t>Fuel tank</t>
+  </si>
+  <si>
+    <t>Tous les capteurs, connecteurs des capteurs, connecteurs PPF des capteurs, connecteur MK3, MK3, fils faisceau capteurs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tous les fils sauf faisceau grande puissance, Brake light, DTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cosses vers masse, épissures, Connecteurs des capteurs du DTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Connecteurs du faisceau principal (sauf ceux inclus dans autres assemblages)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Batterie, support de batterie, cosses batterie, fusible 250A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>master switch,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> faisceau de démarreur, régulateur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Relais, relais de démareur,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fusibles présents dans la boîte à fusible, boite à fusible</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +703,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -720,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,6 +884,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,23 +1168,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="70.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1216,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -1109,7 +1232,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -1125,7 +1248,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1141,7 +1264,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>84</v>
@@ -1157,7 +1280,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1292,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -1178,14 +1301,14 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>146</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
@@ -1201,7 +1324,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -1217,7 +1340,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
@@ -1231,7 +1354,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
@@ -1240,14 +1363,14 @@
         <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>148</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>17</v>
@@ -1257,11 +1380,11 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -1275,7 +1398,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -1291,13 +1414,13 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -1305,7 +1428,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1440,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
         <v>24</v>
@@ -1333,7 +1456,7 @@
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -1345,11 +1468,11 @@
         <v>130</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>26</v>
@@ -1361,11 +1484,11 @@
         <v>129</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
         <v>27</v>
@@ -1381,7 +1504,7 @@
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
         <v>28</v>
@@ -1395,7 +1518,7 @@
       </c>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1407,7 +1530,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>31</v>
@@ -1421,7 +1544,7 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
         <v>32</v>
@@ -1435,7 +1558,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
         <v>33</v>
@@ -1449,7 +1572,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
         <v>34</v>
@@ -1463,7 +1586,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
         <v>35</v>
@@ -1479,7 +1602,7 @@
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
         <v>36</v>
@@ -1495,7 +1618,7 @@
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>37</v>
@@ -1511,7 +1634,7 @@
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11" t="s">
         <v>38</v>
@@ -1527,7 +1650,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>39</v>
@@ -1541,7 +1664,7 @@
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="s">
         <v>40</v>
@@ -1555,7 +1678,7 @@
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
         <v>41</v>
@@ -1569,7 +1692,7 @@
       </c>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="s">
         <v>42</v>
@@ -1585,7 +1708,7 @@
       </c>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
         <v>43</v>
@@ -1601,7 +1724,7 @@
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
         <v>44</v>
@@ -1617,7 +1740,7 @@
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
         <v>45</v>
@@ -1631,7 +1754,7 @@
       </c>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
@@ -1643,7 +1766,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
         <v>47</v>
@@ -1659,7 +1782,7 @@
       </c>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
         <v>49</v>
@@ -1675,7 +1798,7 @@
       </c>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
         <v>50</v>
@@ -1691,7 +1814,7 @@
       </c>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
         <v>51</v>
@@ -1707,7 +1830,7 @@
       </c>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13" t="s">
         <v>52</v>
@@ -1721,7 +1844,7 @@
       </c>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13" t="s">
         <v>53</v>
@@ -1730,14 +1853,14 @@
         <v>107</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>154</v>
       </c>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
         <v>54</v>
@@ -1753,7 +1876,7 @@
       </c>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>57</v>
       </c>
@@ -1765,7 +1888,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15" t="s">
         <v>59</v>
@@ -1775,11 +1898,11 @@
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
         <v>60</v>
@@ -1791,11 +1914,11 @@
         <v>142</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
         <v>61</v>
@@ -1805,11 +1928,11 @@
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15" t="s">
         <v>62</v>
@@ -1819,11 +1942,11 @@
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>63</v>
       </c>
@@ -1835,7 +1958,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>65</v>
@@ -1843,111 +1966,111 @@
       <c r="C53" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>170</v>
+      <c r="D53" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="17" t="s">
         <v>158</v>
       </c>
+      <c r="D54" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="E54" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="1:6" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>72</v>
       </c>
@@ -1959,7 +2082,7 @@
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>73</v>
@@ -1971,11 +2094,11 @@
         <v>143</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>75</v>
@@ -1987,11 +2110,11 @@
         <v>122</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>76</v>
@@ -2003,12 +2126,12 @@
         <v>122</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F63" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\STUF2019\CR - Cost Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBCFE8F-710B-4DD5-9A07-EEFEB77536EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8235" yWindow="4320" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8232" yWindow="4320" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="183">
   <si>
     <t>Asm</t>
   </si>
@@ -48,9 +47,6 @@
     <t>Person in charge</t>
   </si>
   <si>
-    <t>Due time</t>
-  </si>
-  <si>
     <t>BR_A0100</t>
   </si>
   <si>
@@ -499,9 +495,6 @@
   </si>
   <si>
     <t>Pierre-Alexis Corpechot</t>
-  </si>
-  <si>
-    <t>Arthur Perdereau</t>
   </si>
   <si>
     <t>Dash panel</t>
@@ -681,11 +674,23 @@
       <t xml:space="preserve"> fusibles présents dans la boîte à fusible, boite à fusible</t>
     </r>
   </si>
+  <si>
+    <t>Avancement</t>
+  </si>
+  <si>
+    <t>Corrigé excel</t>
+  </si>
+  <si>
+    <t>Néant</t>
+  </si>
+  <si>
+    <t>En cours Excel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1168,23 +1173,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,934 +1207,968 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="D40" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="E46" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="E63" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="183">
   <si>
     <t>Asm</t>
   </si>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1614,9 @@
       <c r="E28" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
@@ -1630,7 +1632,9 @@
       <c r="E29" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
@@ -1646,7 +1650,9 @@
       <c r="E30" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
@@ -1662,7 +1668,9 @@
       <c r="E31" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
@@ -1762,7 +1770,9 @@
       <c r="E37" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
@@ -1776,7 +1786,9 @@
       <c r="E38" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="183">
   <si>
     <t>Asm</t>
   </si>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,7 +1946,9 @@
       <c r="E48" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
@@ -1962,7 +1964,9 @@
       <c r="E49" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="15"/>
+      <c r="F49" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
@@ -1976,7 +1980,9 @@
       <c r="E50" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="15"/>
+      <c r="F50" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
@@ -1990,7 +1996,9 @@
       <c r="E51" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F51" s="15"/>
+      <c r="F51" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
   <si>
     <t>Asm</t>
   </si>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,7 +1236,9 @@
       <c r="E3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1252,7 +1254,9 @@
       <c r="E4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="183">
   <si>
     <t>Asm</t>
   </si>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,7 +1272,9 @@
       <c r="E5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -1288,7 +1290,9 @@
       <c r="E6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -1316,7 +1320,9 @@
       <c r="E8" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -1422,7 +1428,9 @@
       <c r="E15" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
   <si>
     <t>Asm</t>
   </si>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,7 +1338,9 @@
       <c r="E9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -1354,7 +1356,9 @@
       <c r="E10" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -1368,7 +1372,9 @@
       <c r="E11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="183">
   <si>
     <t>Asm</t>
   </si>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,7 +1390,9 @@
       <c r="E12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
@@ -1404,7 +1406,9 @@
       <c r="E13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -1418,7 +1422,9 @@
       <c r="E14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -1450,7 +1456,9 @@
       <c r="E16" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1478,7 +1486,9 @@
       <c r="E18" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
@@ -1494,7 +1504,9 @@
       <c r="E19" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
@@ -1510,7 +1522,9 @@
       <c r="E20" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -1526,7 +1540,9 @@
       <c r="E21" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1540,7 +1556,9 @@
       <c r="E22" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
@@ -1904,7 +1922,9 @@
       <c r="E44" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="13" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
@@ -1938,7 +1958,9 @@
       <c r="E46" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="13" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
   <si>
     <t>Asm</t>
   </si>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2066,7 +2066,9 @@
       <c r="E53" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="17"/>
+      <c r="F53" s="17" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
@@ -2082,7 +2084,9 @@
       <c r="E54" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="17"/>
+      <c r="F54" s="17" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
@@ -2098,7 +2102,9 @@
       <c r="E55" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="17"/>
+      <c r="F55" s="17" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
@@ -2114,7 +2120,9 @@
       <c r="E56" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="17"/>
+      <c r="F56" s="17" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
@@ -2130,7 +2138,9 @@
       <c r="E57" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="17"/>
+      <c r="F57" s="17" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
@@ -2146,7 +2156,9 @@
       <c r="E58" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="17"/>
+      <c r="F58" s="17" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
@@ -2162,7 +2174,9 @@
       <c r="E59" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F59" s="17"/>
+      <c r="F59" s="17" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1321,7 @@
         <v>145</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,7 +1441,7 @@
         <v>145</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1391,7 @@
         <v>147</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1457,7 +1457,7 @@
         <v>147</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1407,7 +1407,7 @@
         <v>166</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,7 +1737,7 @@
         <v>170</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1753,7 +1753,7 @@
         <v>170</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1176,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -1737,7 +1737,7 @@
         <v>170</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1753,7 +1753,7 @@
         <v>170</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,7 +1923,7 @@
         <v>152</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1959,7 +1959,7 @@
         <v>152</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="182">
   <si>
     <t>Asm</t>
   </si>
@@ -679,9 +679,6 @@
   </si>
   <si>
     <t>Corrigé excel</t>
-  </si>
-  <si>
-    <t>Néant</t>
   </si>
   <si>
     <t>En cours Excel</t>
@@ -1176,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,7 +1234,7 @@
         <v>143</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.3">
@@ -1255,7 +1252,7 @@
         <v>143</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1339,7 +1336,7 @@
         <v>146</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1357,7 +1354,7 @@
         <v>146</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1373,7 +1370,7 @@
         <v>146</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1853,7 +1850,7 @@
         <v>150</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1871,7 +1868,7 @@
         <v>150</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1889,7 +1886,7 @@
         <v>150</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1907,7 +1904,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1941,7 +1938,7 @@
         <v>153</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2067,7 +2064,7 @@
         <v>167</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2085,7 +2082,7 @@
         <v>167</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -2103,7 +2100,7 @@
         <v>167</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.3">
@@ -2121,7 +2118,7 @@
         <v>167</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="27" x14ac:dyDescent="0.3">
@@ -2139,7 +2136,7 @@
         <v>167</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2157,7 +2154,7 @@
         <v>167</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.3">
@@ -2175,7 +2172,7 @@
         <v>167</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,7 +1270,7 @@
         <v>144</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1288,7 +1288,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,7 +1336,7 @@
         <v>146</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
         <v>146</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1370,7 +1370,7 @@
         <v>146</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1938,7 +1938,7 @@
         <v>153</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
   <si>
     <t>Asm</t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>En cours Excel</t>
+  </si>
+  <si>
+    <t>En ligne fsg - vérifié</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1187,7 @@
     <col min="3" max="3" width="42.88671875" customWidth="1"/>
     <col min="4" max="4" width="70.109375" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1582,7 +1585,7 @@
         <v>149</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1598,7 +1601,7 @@
         <v>149</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1614,7 +1617,7 @@
         <v>149</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1630,7 +1633,7 @@
         <v>149</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1718,7 +1721,7 @@
         <v>149</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1768,7 +1771,7 @@
         <v>149</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1786,7 +1789,7 @@
         <v>149</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="184">
   <si>
     <t>Asm</t>
   </si>
@@ -685,6 +685,9 @@
   </si>
   <si>
     <t>En ligne fsg - vérifié</t>
+  </si>
+  <si>
+    <t>En cours fsg</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1651,7 +1654,7 @@
         <v>154</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1669,7 +1672,7 @@
         <v>154</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1687,7 +1690,7 @@
         <v>154</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1705,7 +1708,7 @@
         <v>154</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1737,7 +1740,7 @@
         <v>170</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1753,7 +1756,7 @@
         <v>170</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1807,7 +1810,7 @@
         <v>154</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1823,7 +1826,7 @@
         <v>154</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1923,7 +1926,7 @@
         <v>152</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1941,7 +1944,7 @@
         <v>153</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1959,7 +1962,7 @@
         <v>152</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1987,7 +1990,7 @@
         <v>171</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2005,7 +2008,7 @@
         <v>171</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2021,7 +2024,7 @@
         <v>171</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2037,7 +2040,7 @@
         <v>171</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2205,7 +2208,7 @@
         <v>170</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2223,7 +2226,7 @@
         <v>170</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2241,7 +2244,7 @@
         <v>170</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,7 +2226,7 @@
         <v>170</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2244,7 +2244,7 @@
         <v>170</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="185">
   <si>
     <t>Asm</t>
   </si>
@@ -688,6 +688,9 @@
   </si>
   <si>
     <t>En cours fsg</t>
+  </si>
+  <si>
+    <t>En cours excel</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1657,7 @@
         <v>154</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1672,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1690,7 +1693,7 @@
         <v>154</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1708,7 +1711,7 @@
         <v>154</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1810,7 +1813,7 @@
         <v>154</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1826,7 +1829,7 @@
         <v>154</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1856,7 +1859,7 @@
         <v>150</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1874,7 +1877,7 @@
         <v>150</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1892,7 +1895,7 @@
         <v>150</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1910,7 +1913,7 @@
         <v>144</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1926,7 +1929,7 @@
         <v>152</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1962,7 +1965,7 @@
         <v>152</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="187">
   <si>
     <t>Asm</t>
   </si>
@@ -691,6 +691,12 @@
   </si>
   <si>
     <t>En cours excel</t>
+  </si>
+  <si>
+    <t>En cours DBOM</t>
+  </si>
+  <si>
+    <t>Corrigé DBOM</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,7 +1249,7 @@
         <v>143</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.3">
@@ -1261,7 +1267,7 @@
         <v>143</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1327,7 +1333,7 @@
         <v>145</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1345,7 +1351,7 @@
         <v>146</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1363,7 +1369,7 @@
         <v>146</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1379,7 +1385,7 @@
         <v>146</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1397,7 +1403,7 @@
         <v>147</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1429,7 +1435,7 @@
         <v>148</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1447,7 +1453,7 @@
         <v>145</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1463,7 +1469,7 @@
         <v>147</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="186">
   <si>
     <t>Asm</t>
   </si>
@@ -694,9 +694,6 @@
   </si>
   <si>
     <t>En cours DBOM</t>
-  </si>
-  <si>
-    <t>Corrigé DBOM</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1246,7 @@
         <v>143</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.3">
@@ -1267,7 +1264,7 @@
         <v>143</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1351,7 +1348,7 @@
         <v>146</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1369,7 +1366,7 @@
         <v>146</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1385,7 +1382,7 @@
         <v>146</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,7 +1432,7 @@
         <v>148</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/Suivi_avancement.xlsx
+++ b/CR - Cost Report/Suivi_avancement.xlsx
@@ -1185,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
